--- a/tests/Feature/config/car_realistic.xlsx
+++ b/tests/Feature/config/car_realistic.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>private</t>
   </si>
@@ -100,6 +100,9 @@
     <t>% Økning</t>
   </si>
   <si>
+    <t>Formue innskutt</t>
+  </si>
+  <si>
     <t>Formue skattbar</t>
   </si>
   <si>
@@ -142,183 +145,147 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current value: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current amount: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 50400 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 50400 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 52920 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 52920 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 55566 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 55566 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 58344 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 58344 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 61262 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 61262 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 64325 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 64325 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 67541 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 67541 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 70918 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 70918 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 74464 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 74464 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 78187 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 78187 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 82096 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 82096 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 86201 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 86201 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 90511 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 90511 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 95037 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 95037 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 99789 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 99789 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 104778 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 104778 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 110017 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 110017 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 115518 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 115518 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 121294 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 121294 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 127358 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 127358 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 133726 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 133726 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 140413 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 140413 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 147433 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 147433 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 154805 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 154805 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 162545 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 162545 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 170672 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 170672 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 179206 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 179206 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 188166 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 188166 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 197575 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 197575 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 207453 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 207453 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 217826 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 217826 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 228717 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 228717 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 240153 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 240153 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 252161 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 252161 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
 </sst>
@@ -740,14 +707,14 @@
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -790,10 +757,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -856,10 +823,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -888,7 +855,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -933,20 +902,18 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -954,13 +921,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6"/>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
@@ -1005,20 +974,18 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -1026,13 +993,15 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7"/>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
@@ -1077,20 +1046,18 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -1098,13 +1065,15 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8"/>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
@@ -1149,20 +1118,18 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -1170,13 +1137,15 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9"/>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -1221,20 +1190,18 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
@@ -1242,13 +1209,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10"/>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
@@ -1293,20 +1262,18 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
@@ -1314,13 +1281,15 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11"/>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
@@ -1365,20 +1334,18 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
@@ -1386,13 +1353,15 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12"/>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
@@ -1437,20 +1406,18 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
@@ -1458,13 +1425,15 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13"/>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
@@ -1509,20 +1478,18 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
@@ -1530,13 +1497,15 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14"/>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
@@ -1581,20 +1550,18 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
@@ -1602,13 +1569,15 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15"/>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
@@ -1653,20 +1622,18 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -1674,13 +1641,15 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16"/>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
@@ -1725,20 +1694,18 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -1746,13 +1713,15 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17"/>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
@@ -1797,20 +1766,18 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
@@ -1818,13 +1785,15 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18"/>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
@@ -1869,20 +1838,18 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
@@ -1890,13 +1857,15 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19"/>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
@@ -1941,20 +1910,18 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -1962,13 +1929,15 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20"/>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -2013,20 +1982,18 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -2034,13 +2001,15 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21"/>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
@@ -2085,20 +2054,18 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
@@ -2106,13 +2073,15 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22"/>
+      <c r="AC22">
+        <v>0.0</v>
+      </c>
+      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
@@ -2157,20 +2126,18 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
@@ -2178,13 +2145,15 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23"/>
+      <c r="AC23">
+        <v>0.0</v>
+      </c>
+      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
@@ -2229,20 +2198,18 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>0</v>
       </c>
@@ -2250,13 +2217,15 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>0.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24"/>
+      <c r="AC24">
+        <v>0.0</v>
+      </c>
+      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
@@ -2301,20 +2270,18 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
@@ -2322,13 +2289,15 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25"/>
+      <c r="AC25">
+        <v>0.0</v>
+      </c>
+      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
@@ -2373,20 +2342,18 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
       <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
@@ -2394,13 +2361,15 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26"/>
+      <c r="AC26">
+        <v>0.0</v>
+      </c>
+      <c r="AE26"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
@@ -2445,20 +2414,18 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="6"/>
       <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
@@ -2466,13 +2433,15 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27"/>
+      <c r="AC27">
+        <v>0.0</v>
+      </c>
+      <c r="AE27"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
@@ -2517,20 +2486,18 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="6"/>
       <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
@@ -2538,13 +2505,15 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28"/>
+      <c r="AC28">
+        <v>0.0</v>
+      </c>
+      <c r="AE28"/>
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
@@ -2589,20 +2558,18 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
       <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
@@ -2610,13 +2577,15 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29"/>
+      <c r="AC29">
+        <v>0.0</v>
+      </c>
+      <c r="AE29"/>
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
@@ -2661,20 +2630,18 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
@@ -2682,13 +2649,15 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30"/>
+      <c r="AC30">
+        <v>0.0</v>
+      </c>
+      <c r="AE30"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
@@ -2733,20 +2702,18 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
@@ -2754,13 +2721,15 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31"/>
+      <c r="AC31">
+        <v>0.0</v>
+      </c>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
@@ -2805,20 +2774,18 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="6"/>
       <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
@@ -2826,13 +2793,15 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32"/>
+      <c r="AC32">
+        <v>0.0</v>
+      </c>
+      <c r="AE32"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
@@ -2877,20 +2846,18 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6"/>
       <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
@@ -2898,13 +2865,15 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>0.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33"/>
+      <c r="AC33">
+        <v>0.0</v>
+      </c>
+      <c r="AE33"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
@@ -2949,20 +2918,18 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
@@ -2970,13 +2937,15 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34"/>
+      <c r="AC34">
+        <v>0.0</v>
+      </c>
+      <c r="AE34"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
@@ -3021,20 +2990,18 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="6"/>
       <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
@@ -3042,13 +3009,15 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35"/>
+      <c r="AC35">
+        <v>0.0</v>
+      </c>
+      <c r="AE35"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
@@ -3093,20 +3062,18 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="6"/>
       <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
         <v>0</v>
       </c>
@@ -3114,13 +3081,15 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36"/>
+      <c r="AC36">
+        <v>0.0</v>
+      </c>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
@@ -3165,20 +3134,18 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
@@ -3186,13 +3153,15 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37"/>
+      <c r="AC37">
+        <v>0.0</v>
+      </c>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7">
@@ -3237,22 +3206,18 @@
       <c r="R38" s="8">
         <v>100000</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="S38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
         <v>-49000.0</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <v>100000</v>
       </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
+      <c r="X38" s="8"/>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
@@ -3260,13 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-48000.0</v>
       </c>
-      <c r="AC38" s="9"/>
       <c r="AD38" s="7"/>
+      <c r="AE38"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
@@ -3309,24 +3277,20 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S39" s="1">
         <v>89000</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="T39" s="1"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="1">
         <v>-51290.0</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>89000</v>
       </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
@@ -3334,13 +3298,15 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-50400.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39"/>
+      <c r="AE39"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="10">
@@ -3383,24 +3349,20 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S40" s="11">
         <v>79210</v>
       </c>
-      <c r="S40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="11">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11">
         <v>-53712.1</v>
       </c>
-      <c r="V40" s="11">
+      <c r="W40" s="11">
         <v>79210</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
@@ -3408,13 +3370,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-52920.0</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
+      <c r="AE40"/>
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
@@ -3457,24 +3422,20 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S41" s="1">
         <v>70497</v>
       </c>
-      <c r="S41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="T41" s="1"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="1">
         <v>-56270.97</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>70497</v>
       </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
@@ -3482,13 +3443,15 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-55566.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41"/>
+      <c r="AE41"/>
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
@@ -3531,24 +3494,20 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S42" s="1">
         <v>62742</v>
       </c>
-      <c r="S42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="6">
+      <c r="T42" s="1"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1">
         <v>-58971.42</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>62742</v>
       </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
@@ -3556,13 +3515,15 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-58344.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
@@ -3605,24 +3566,20 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S43" s="1">
         <v>55840</v>
       </c>
-      <c r="S43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="6">
+      <c r="T43" s="1"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="1">
         <v>-61819.4</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>55840</v>
       </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
@@ -3630,13 +3587,15 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-61262.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
@@ -3679,24 +3638,20 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S44" s="1">
         <v>49698</v>
       </c>
-      <c r="S44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="6">
+      <c r="T44" s="1"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="1">
         <v>-64820.98</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>49698</v>
       </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
@@ -3704,13 +3659,15 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-64325.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
@@ -3753,24 +3710,20 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S45" s="1">
         <v>44231</v>
       </c>
-      <c r="S45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="6">
+      <c r="T45" s="1"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="1">
         <v>-67982.31</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>44231</v>
       </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
@@ -3778,13 +3731,15 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB45">
+        <v>0.0</v>
+      </c>
+      <c r="AC45">
         <v>-67541.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45"/>
+      <c r="AE45"/>
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
@@ -3827,24 +3782,20 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S46" s="1">
         <v>39366</v>
       </c>
-      <c r="S46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U46" s="6">
+      <c r="T46" s="1"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="1">
         <v>-71310.66</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>39366</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
@@ -3852,13 +3803,15 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB46">
+        <v>0.0</v>
+      </c>
+      <c r="AC46">
         <v>-70918.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46"/>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
@@ -3901,24 +3854,20 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S47" s="1">
         <v>35036</v>
       </c>
-      <c r="S47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="6">
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="1">
         <v>-74813.36</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>35036</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
@@ -3926,13 +3875,15 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB47">
+        <v>0.0</v>
+      </c>
+      <c r="AC47">
         <v>-74464.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47"/>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
@@ -3975,24 +3926,20 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S48" s="1">
         <v>31182</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="6">
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="1">
         <v>-78497.82</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>31182</v>
       </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
@@ -4000,13 +3947,15 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB48">
+        <v>0.0</v>
+      </c>
+      <c r="AC48">
         <v>-78187.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48"/>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
@@ -4049,24 +3998,20 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S49" s="1">
         <v>27752</v>
       </c>
-      <c r="S49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="6">
+      <c r="T49" s="1"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="1">
         <v>-82373.52</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>27752</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
@@ -4074,13 +4019,15 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB49">
+        <v>0.0</v>
+      </c>
+      <c r="AC49">
         <v>-82096.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49"/>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
@@ -4123,24 +4070,20 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S50" s="1">
         <v>24699</v>
       </c>
-      <c r="S50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="6">
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="1">
         <v>-86447.99</v>
       </c>
-      <c r="V50" s="1">
+      <c r="W50" s="1">
         <v>24699</v>
       </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
@@ -4148,13 +4091,15 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB50">
+        <v>0.0</v>
+      </c>
+      <c r="AC50">
         <v>-86201.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50"/>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
@@ -4197,24 +4142,20 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S51" s="1">
         <v>21982</v>
       </c>
-      <c r="S51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="6">
+      <c r="T51" s="1"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="1">
         <v>-90730.82</v>
       </c>
-      <c r="V51" s="1">
+      <c r="W51" s="1">
         <v>21982</v>
       </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
@@ -4222,13 +4163,15 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB51">
+        <v>0.0</v>
+      </c>
+      <c r="AC51">
         <v>-90511.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51"/>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
@@ -4271,24 +4214,20 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S52" s="1">
         <v>19564</v>
       </c>
-      <c r="S52" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="6">
+      <c r="T52" s="1"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="1">
         <v>-95231.64</v>
       </c>
-      <c r="V52" s="1">
+      <c r="W52" s="1">
         <v>19564</v>
       </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
@@ -4296,13 +4235,15 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB52">
+        <v>0.0</v>
+      </c>
+      <c r="AC52">
         <v>-95037.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52"/>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3">
@@ -4345,24 +4286,20 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S53" s="13">
         <v>17412</v>
       </c>
-      <c r="S53" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U53" s="13">
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13">
         <v>-99962.12</v>
       </c>
-      <c r="V53" s="13">
+      <c r="W53" s="13">
         <v>17412</v>
       </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
@@ -4370,13 +4307,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="3">
         <v>-99789.0</v>
       </c>
-      <c r="AC53" s="14"/>
       <c r="AD53" s="3"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
@@ -4419,24 +4359,20 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S54" s="1">
         <v>15497</v>
       </c>
-      <c r="S54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U54" s="6">
+      <c r="T54" s="1"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="1">
         <v>-104931.97</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>15497</v>
       </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
@@ -4444,13 +4380,15 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB54">
+        <v>0.0</v>
+      </c>
+      <c r="AC54">
         <v>-104778.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54"/>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
@@ -4493,24 +4431,20 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S55" s="1">
         <v>13792</v>
       </c>
-      <c r="S55" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="6">
+      <c r="T55" s="1"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="1">
         <v>-110153.92</v>
       </c>
-      <c r="V55" s="1">
+      <c r="W55" s="1">
         <v>13792</v>
       </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
@@ -4518,13 +4452,15 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB55">
+        <v>0.0</v>
+      </c>
+      <c r="AC55">
         <v>-110017.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55"/>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
@@ -4567,24 +4503,20 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S56" s="1">
         <v>12275</v>
       </c>
-      <c r="S56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="6">
+      <c r="T56" s="1"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="1">
         <v>-115639.75</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>12275</v>
       </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
@@ -4592,13 +4524,15 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB56">
+        <v>0.0</v>
+      </c>
+      <c r="AC56">
         <v>-115518.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56"/>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="3">
@@ -4641,24 +4575,20 @@
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S57" s="13">
         <v>10925</v>
       </c>
-      <c r="S57" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U57" s="13">
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13">
         <v>-121402.25</v>
       </c>
-      <c r="V57" s="13">
+      <c r="W57" s="13">
         <v>10925</v>
       </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
@@ -4666,13 +4596,16 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>-121294.0</v>
       </c>
-      <c r="AC57" s="14"/>
       <c r="AD57" s="3"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
@@ -4715,24 +4648,20 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S58" s="1">
         <v>9723</v>
       </c>
-      <c r="S58" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U58" s="6">
+      <c r="T58" s="1"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="1">
         <v>-127455.23</v>
       </c>
-      <c r="V58" s="1">
+      <c r="W58" s="1">
         <v>9723</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
@@ -4740,13 +4669,15 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58">
+        <v>0.0</v>
+      </c>
+      <c r="AC58">
         <v>-127358.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58"/>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
@@ -4789,24 +4720,20 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S59" s="1">
         <v>8653</v>
       </c>
-      <c r="S59" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="6">
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="1">
         <v>-133812.53</v>
       </c>
-      <c r="V59" s="1">
+      <c r="W59" s="1">
         <v>8653</v>
       </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
@@ -4814,13 +4741,15 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB59">
+        <v>0.0</v>
+      </c>
+      <c r="AC59">
         <v>-133726.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59"/>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
@@ -4863,24 +4792,20 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S60" s="1">
         <v>7701</v>
       </c>
-      <c r="S60" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="6">
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="1">
         <v>-140489.01</v>
       </c>
-      <c r="V60" s="1">
+      <c r="W60" s="1">
         <v>7701</v>
       </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
@@ -4888,13 +4813,15 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB60">
+        <v>0.0</v>
+      </c>
+      <c r="AC60">
         <v>-140413.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60"/>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
@@ -4937,24 +4864,20 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S61" s="1">
         <v>6854</v>
       </c>
-      <c r="S61" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="6">
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="1">
         <v>-147501.54</v>
       </c>
-      <c r="V61" s="1">
+      <c r="W61" s="1">
         <v>6854</v>
       </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
@@ -4962,13 +4885,15 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB61">
+        <v>0.0</v>
+      </c>
+      <c r="AC61">
         <v>-147433.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61"/>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
@@ -5011,24 +4936,20 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S62" s="1">
         <v>6100</v>
       </c>
-      <c r="S62" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="6">
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="1">
         <v>-154865.0</v>
       </c>
-      <c r="V62" s="1">
+      <c r="W62" s="1">
         <v>6100</v>
       </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
@@ -5036,13 +4957,15 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB62">
+        <v>0.0</v>
+      </c>
+      <c r="AC62">
         <v>-154805.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62"/>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
@@ -5085,24 +5008,20 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S63" s="1">
         <v>5429</v>
       </c>
-      <c r="S63" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="6">
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="1">
         <v>-162599.29</v>
       </c>
-      <c r="V63" s="1">
+      <c r="W63" s="1">
         <v>5429</v>
       </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
@@ -5110,13 +5029,15 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB63">
+        <v>0.0</v>
+      </c>
+      <c r="AC63">
         <v>-162545.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63"/>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31">
       <c r="A64">
@@ -5159,24 +5080,20 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S64" s="1">
         <v>4832</v>
       </c>
-      <c r="S64" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="6">
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="1">
         <v>-170720.32</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <v>4832</v>
       </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
@@ -5184,13 +5101,15 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB64">
+        <v>0.0</v>
+      </c>
+      <c r="AC64">
         <v>-170672.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64"/>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65">
@@ -5233,24 +5152,20 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S65" s="1">
         <v>4300</v>
       </c>
-      <c r="S65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="6">
+      <c r="T65" s="1"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="1">
         <v>-179248.0</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <v>4300</v>
       </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
@@ -5258,13 +5173,15 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB65">
+        <v>0.0</v>
+      </c>
+      <c r="AC65">
         <v>-179206.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65"/>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66">
@@ -5307,24 +5224,20 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S66" s="1">
         <v>3827</v>
       </c>
-      <c r="S66" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="6">
+      <c r="T66" s="1"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="1">
         <v>-188204.27</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>3827</v>
       </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
@@ -5332,13 +5245,15 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB66">
+        <v>0.0</v>
+      </c>
+      <c r="AC66">
         <v>-188166.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66"/>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67">
@@ -5381,24 +5296,20 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S67" s="1">
         <v>3406</v>
       </c>
-      <c r="S67" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="6">
+      <c r="T67" s="1"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="1">
         <v>-197608.06</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>3406</v>
       </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
@@ -5406,13 +5317,15 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB67">
+        <v>0.0</v>
+      </c>
+      <c r="AC67">
         <v>-197575.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67"/>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68">
@@ -5455,24 +5368,20 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S68" s="1">
         <v>3031</v>
       </c>
-      <c r="S68" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="6">
+      <c r="T68" s="1"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="1">
         <v>-207483.31</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>3031</v>
       </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
@@ -5480,13 +5389,15 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB68">
+        <v>0.0</v>
+      </c>
+      <c r="AC68">
         <v>-207453.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68"/>
+      <c r="AE68"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69">
@@ -5529,24 +5440,20 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S69" s="1">
         <v>2698</v>
       </c>
-      <c r="S69" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="6">
+      <c r="T69" s="1"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="1">
         <v>-217851.98</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>2698</v>
       </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
@@ -5554,13 +5461,15 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB69">
+        <v>0.0</v>
+      </c>
+      <c r="AC69">
         <v>-217826.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69"/>
+      <c r="AE69"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70">
@@ -5603,24 +5512,20 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S70" s="1">
         <v>2401</v>
       </c>
-      <c r="S70" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="6">
+      <c r="T70" s="1"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="1">
         <v>-228741.01</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>2401</v>
       </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
@@ -5628,13 +5533,15 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB70">
+        <v>0.0</v>
+      </c>
+      <c r="AC70">
         <v>-228717.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70"/>
+      <c r="AE70"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71">
@@ -5677,24 +5584,20 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S71" s="1">
         <v>2137</v>
       </c>
-      <c r="S71" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="6">
+      <c r="T71" s="1"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="1">
         <v>-240174.37</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>2137</v>
       </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -5702,13 +5605,15 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB71">
+        <v>0.0</v>
+      </c>
+      <c r="AC71">
         <v>-240153.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71"/>
+      <c r="AE71"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="15">
@@ -5751,24 +5656,20 @@
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="S72" s="5">
         <v>1902</v>
       </c>
-      <c r="S72" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="5">
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5">
         <v>-252179.02</v>
       </c>
-      <c r="V72" s="5">
+      <c r="W72" s="5">
         <v>1902</v>
       </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
@@ -5776,13 +5677,16 @@
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-252161.0</v>
       </c>
-      <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
+      <c r="AE72"/>
     </row>
     <row r="73" spans="1:31">
       <c r="B73" s="1"/>
@@ -5802,15 +5706,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -5830,15 +5733,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -5858,15 +5760,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -5886,15 +5787,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -5914,15 +5814,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -5942,15 +5841,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -5970,15 +5868,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -5998,15 +5895,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -6055,19 +5951,19 @@
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -6075,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -6087,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6107,10 +6003,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6173,10 +6069,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -6205,7 +6101,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -6242,33 +6140,35 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>0.0</v>
-      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s">
-        <v>41</v>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6306,33 +6206,35 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7">
-        <v>0.0</v>
-      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" t="s">
-        <v>41</v>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6370,33 +6272,35 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <v>0.0</v>
-      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8"/>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" t="s">
-        <v>41</v>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6434,33 +6338,35 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9">
-        <v>0.0</v>
-      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" t="s">
-        <v>41</v>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6498,33 +6404,35 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10">
-        <v>0.0</v>
-      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10"/>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" t="s">
-        <v>41</v>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6562,33 +6470,35 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11">
-        <v>0.0</v>
-      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" t="s">
-        <v>41</v>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6626,33 +6536,35 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12">
-        <v>0.0</v>
-      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12"/>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s">
-        <v>41</v>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6690,33 +6602,35 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13">
-        <v>0.0</v>
-      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s">
-        <v>41</v>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6754,33 +6668,35 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14">
-        <v>0.0</v>
-      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14"/>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" t="s">
-        <v>41</v>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6818,33 +6734,35 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15">
-        <v>0.0</v>
-      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15"/>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
-        <v>41</v>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6882,33 +6800,35 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16">
-        <v>0.0</v>
-      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" t="s">
-        <v>41</v>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6946,33 +6866,35 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17">
-        <v>0.0</v>
-      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
-        <v>41</v>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -7010,33 +6932,35 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="6">
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18">
-        <v>0.0</v>
-      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18"/>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s">
-        <v>41</v>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7074,33 +6998,35 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="6">
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19">
-        <v>0.0</v>
-      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19"/>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" t="s">
-        <v>41</v>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7138,33 +7064,35 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="6">
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20">
-        <v>0.0</v>
-      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s">
-        <v>41</v>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7202,33 +7130,35 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="6">
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21">
-        <v>0.0</v>
-      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s">
-        <v>41</v>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7266,33 +7196,35 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="6">
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22">
-        <v>0.0</v>
-      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22"/>
       <c r="AB22">
         <v>0.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s">
-        <v>41</v>
+      <c r="AC22">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7330,33 +7262,35 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="6">
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23">
-        <v>0.0</v>
-      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23"/>
       <c r="AB23">
         <v>0.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s">
-        <v>41</v>
+      <c r="AC23">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7394,33 +7328,35 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="6">
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>0</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24">
-        <v>0.0</v>
-      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24"/>
       <c r="AB24">
         <v>0.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s">
-        <v>41</v>
+      <c r="AC24">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7458,33 +7394,35 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="6">
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25">
-        <v>0.0</v>
-      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25"/>
       <c r="AB25">
         <v>0.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s">
-        <v>41</v>
+      <c r="AC25">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7522,33 +7460,35 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="6">
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26">
-        <v>0.0</v>
-      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26"/>
       <c r="AB26">
         <v>0.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" t="s">
-        <v>41</v>
+      <c r="AC26">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7586,33 +7526,35 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="6">
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27">
-        <v>0.0</v>
-      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27"/>
       <c r="AB27">
         <v>0.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s">
-        <v>41</v>
+      <c r="AC27">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7650,33 +7592,35 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="6">
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28">
-        <v>0.0</v>
-      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28"/>
       <c r="AB28">
         <v>0.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s">
-        <v>41</v>
+      <c r="AC28">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7714,33 +7658,35 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="6">
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29">
-        <v>0.0</v>
-      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29"/>
       <c r="AB29">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" t="s">
-        <v>41</v>
+      <c r="AC29">
+        <v>0.0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7778,33 +7724,35 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="6">
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30">
-        <v>0.0</v>
-      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30"/>
       <c r="AB30">
         <v>0.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s">
-        <v>41</v>
+      <c r="AC30">
+        <v>0.0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7842,33 +7790,35 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="6">
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31">
-        <v>0.0</v>
-      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31"/>
       <c r="AB31">
         <v>0.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s">
-        <v>41</v>
+      <c r="AC31">
+        <v>0.0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7906,33 +7856,35 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="6">
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0.0</v>
-      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32"/>
       <c r="AB32">
         <v>0.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s">
-        <v>41</v>
+      <c r="AC32">
+        <v>0.0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -7970,33 +7922,35 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="6">
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0.0</v>
-      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33"/>
       <c r="AB33">
         <v>0.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s">
-        <v>41</v>
+      <c r="AC33">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8034,33 +7988,35 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="6">
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34">
-        <v>0.0</v>
-      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34"/>
       <c r="AB34">
         <v>0.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s">
-        <v>41</v>
+      <c r="AC34">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8098,33 +8054,35 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="6">
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35">
-        <v>0.0</v>
-      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35"/>
       <c r="AB35">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" t="s">
-        <v>41</v>
+      <c r="AC35">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8162,33 +8120,35 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="6">
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
         <v>0</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36">
-        <v>0.0</v>
-      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36"/>
       <c r="AB36">
         <v>0.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" t="s">
-        <v>41</v>
+      <c r="AC36">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8226,33 +8186,35 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="6">
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37">
-        <v>0.0</v>
-      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37"/>
       <c r="AB37">
         <v>0.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" t="s">
-        <v>41</v>
+      <c r="AC37">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8294,35 +8256,36 @@
       <c r="R38" s="8">
         <v>100000</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T38" s="8">
+      <c r="S38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
         <v>1000.0</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <v>-49000.0</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <v>100000</v>
       </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
+      <c r="X38" s="8"/>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
+      <c r="Z38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-48000.0</v>
       </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="7" t="s">
-        <v>42</v>
+      <c r="AD38" s="7"/>
+      <c r="AE38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8362,37 +8325,37 @@
         <v>-0.11</v>
       </c>
       <c r="R39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S39" s="1">
         <v>89000</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T39" s="1">
+      <c r="T39" s="1"/>
+      <c r="U39" s="6">
         <v>890.0</v>
       </c>
-      <c r="U39" s="6">
+      <c r="V39" s="1">
         <v>-51290.0</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>89000</v>
       </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39">
-        <v>0.0</v>
-      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39"/>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-50400.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" t="s">
-        <v>43</v>
+      <c r="AE39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8432,37 +8395,38 @@
         <v>-0.11</v>
       </c>
       <c r="R40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S40" s="11">
         <v>79210</v>
       </c>
-      <c r="S40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T40" s="11">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11">
         <v>792.1</v>
       </c>
-      <c r="U40" s="11">
+      <c r="V40" s="11">
         <v>-53712.1</v>
       </c>
-      <c r="V40" s="11">
+      <c r="W40" s="11">
         <v>79210</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="10">
-        <v>0.0</v>
-      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-52920.0</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="10" t="s">
-        <v>44</v>
+      <c r="AD40" s="10"/>
+      <c r="AE40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8502,37 +8466,37 @@
         <v>-0.11</v>
       </c>
       <c r="R41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S41" s="1">
         <v>70497</v>
       </c>
-      <c r="S41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T41" s="1">
+      <c r="T41" s="1"/>
+      <c r="U41" s="6">
         <v>704.97</v>
       </c>
-      <c r="U41" s="6">
+      <c r="V41" s="1">
         <v>-56270.97</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>70497</v>
       </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41">
-        <v>0.0</v>
-      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-55566.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s">
-        <v>45</v>
+      <c r="AE41" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8572,37 +8536,37 @@
         <v>-0.11</v>
       </c>
       <c r="R42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S42" s="1">
         <v>62742</v>
       </c>
-      <c r="S42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T42" s="1">
+      <c r="T42" s="1"/>
+      <c r="U42" s="6">
         <v>627.42</v>
       </c>
-      <c r="U42" s="6">
+      <c r="V42" s="1">
         <v>-58971.42</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>62742</v>
       </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42">
-        <v>0.0</v>
-      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-58344.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s">
-        <v>46</v>
+      <c r="AE42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8642,37 +8606,37 @@
         <v>-0.11</v>
       </c>
       <c r="R43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S43" s="1">
         <v>55840</v>
       </c>
-      <c r="S43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="1">
+      <c r="T43" s="1"/>
+      <c r="U43" s="6">
         <v>558.4</v>
       </c>
-      <c r="U43" s="6">
+      <c r="V43" s="1">
         <v>-61819.4</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>55840</v>
       </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43">
-        <v>0.0</v>
-      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-61262.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" t="s">
-        <v>47</v>
+      <c r="AE43" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8712,37 +8676,37 @@
         <v>-0.11</v>
       </c>
       <c r="R44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S44" s="1">
         <v>49698</v>
       </c>
-      <c r="S44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="1">
+      <c r="T44" s="1"/>
+      <c r="U44" s="6">
         <v>496.98</v>
       </c>
-      <c r="U44" s="6">
+      <c r="V44" s="1">
         <v>-64820.98</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>49698</v>
       </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44">
-        <v>0.0</v>
-      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-64325.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44" t="s">
-        <v>48</v>
+      <c r="AE44" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8782,37 +8746,37 @@
         <v>-0.11</v>
       </c>
       <c r="R45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S45" s="1">
         <v>44231</v>
       </c>
-      <c r="S45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="1">
+      <c r="T45" s="1"/>
+      <c r="U45" s="6">
         <v>442.31</v>
       </c>
-      <c r="U45" s="6">
+      <c r="V45" s="1">
         <v>-67982.31</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>44231</v>
       </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45">
-        <v>0.0</v>
-      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45">
+        <v>0.0</v>
+      </c>
+      <c r="AC45">
         <v>-67541.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" t="s">
-        <v>49</v>
+      <c r="AE45" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8852,37 +8816,37 @@
         <v>-0.11</v>
       </c>
       <c r="R46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S46" s="1">
         <v>39366</v>
       </c>
-      <c r="S46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="1">
+      <c r="T46" s="1"/>
+      <c r="U46" s="6">
         <v>393.66</v>
       </c>
-      <c r="U46" s="6">
+      <c r="V46" s="1">
         <v>-71310.66</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>39366</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46">
-        <v>0.0</v>
-      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46">
+        <v>0.0</v>
+      </c>
+      <c r="AC46">
         <v>-70918.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" t="s">
-        <v>50</v>
+      <c r="AE46" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8922,37 +8886,37 @@
         <v>-0.11</v>
       </c>
       <c r="R47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S47" s="1">
         <v>35036</v>
       </c>
-      <c r="S47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T47" s="1">
+      <c r="T47" s="1"/>
+      <c r="U47" s="6">
         <v>350.36</v>
       </c>
-      <c r="U47" s="6">
+      <c r="V47" s="1">
         <v>-74813.36</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>35036</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47">
-        <v>0.0</v>
-      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47">
+        <v>0.0</v>
+      </c>
+      <c r="AC47">
         <v>-74464.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" t="s">
-        <v>51</v>
+      <c r="AE47" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -8992,37 +8956,37 @@
         <v>-0.11</v>
       </c>
       <c r="R48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S48" s="1">
         <v>31182</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T48" s="1">
+      <c r="T48" s="1"/>
+      <c r="U48" s="6">
         <v>311.82</v>
       </c>
-      <c r="U48" s="6">
+      <c r="V48" s="1">
         <v>-78497.82</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>31182</v>
       </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48">
-        <v>0.0</v>
-      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48">
+        <v>0.0</v>
+      </c>
+      <c r="AC48">
         <v>-78187.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s">
-        <v>52</v>
+      <c r="AE48" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9062,37 +9026,37 @@
         <v>-0.11</v>
       </c>
       <c r="R49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S49" s="1">
         <v>27752</v>
       </c>
-      <c r="S49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T49" s="1">
+      <c r="T49" s="1"/>
+      <c r="U49" s="6">
         <v>277.52</v>
       </c>
-      <c r="U49" s="6">
+      <c r="V49" s="1">
         <v>-82373.52</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>27752</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49">
-        <v>0.0</v>
-      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49">
+        <v>0.0</v>
+      </c>
+      <c r="AC49">
         <v>-82096.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" t="s">
-        <v>53</v>
+      <c r="AE49" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9132,37 +9096,37 @@
         <v>-0.11</v>
       </c>
       <c r="R50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S50" s="1">
         <v>24699</v>
       </c>
-      <c r="S50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="1">
+      <c r="T50" s="1"/>
+      <c r="U50" s="6">
         <v>246.99</v>
       </c>
-      <c r="U50" s="6">
+      <c r="V50" s="1">
         <v>-86447.99</v>
       </c>
-      <c r="V50" s="1">
+      <c r="W50" s="1">
         <v>24699</v>
       </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50">
-        <v>0.0</v>
-      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50">
+        <v>0.0</v>
+      </c>
+      <c r="AC50">
         <v>-86201.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s">
-        <v>54</v>
+      <c r="AE50" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9202,37 +9166,37 @@
         <v>-0.11</v>
       </c>
       <c r="R51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S51" s="1">
         <v>21982</v>
       </c>
-      <c r="S51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="1">
+      <c r="T51" s="1"/>
+      <c r="U51" s="6">
         <v>219.82</v>
       </c>
-      <c r="U51" s="6">
+      <c r="V51" s="1">
         <v>-90730.82</v>
       </c>
-      <c r="V51" s="1">
+      <c r="W51" s="1">
         <v>21982</v>
       </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51">
-        <v>0.0</v>
-      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51">
+        <v>0.0</v>
+      </c>
+      <c r="AC51">
         <v>-90511.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s">
-        <v>55</v>
+      <c r="AE51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9272,37 +9236,37 @@
         <v>-0.11</v>
       </c>
       <c r="R52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S52" s="1">
         <v>19564</v>
       </c>
-      <c r="S52" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="1">
+      <c r="T52" s="1"/>
+      <c r="U52" s="6">
         <v>195.64</v>
       </c>
-      <c r="U52" s="6">
+      <c r="V52" s="1">
         <v>-95231.64</v>
       </c>
-      <c r="V52" s="1">
+      <c r="W52" s="1">
         <v>19564</v>
       </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52">
-        <v>0.0</v>
-      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52">
+        <v>0.0</v>
+      </c>
+      <c r="AC52">
         <v>-95037.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s">
-        <v>56</v>
+      <c r="AE52" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9342,37 +9306,38 @@
         <v>-0.11</v>
       </c>
       <c r="R53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S53" s="13">
         <v>17412</v>
       </c>
-      <c r="S53" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T53" s="13">
+      <c r="T53" s="13"/>
+      <c r="U53" s="13">
         <v>174.12</v>
       </c>
-      <c r="U53" s="13">
+      <c r="V53" s="13">
         <v>-99962.12</v>
       </c>
-      <c r="V53" s="13">
+      <c r="W53" s="13">
         <v>17412</v>
       </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="3">
         <v>-99789.0</v>
       </c>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="3" t="s">
-        <v>57</v>
+      <c r="AD53" s="3"/>
+      <c r="AE53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9412,37 +9377,37 @@
         <v>-0.11</v>
       </c>
       <c r="R54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S54" s="1">
         <v>15497</v>
       </c>
-      <c r="S54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T54" s="1">
+      <c r="T54" s="1"/>
+      <c r="U54" s="6">
         <v>154.97</v>
       </c>
-      <c r="U54" s="6">
+      <c r="V54" s="1">
         <v>-104931.97</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>15497</v>
       </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54">
-        <v>0.0</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54">
+        <v>0.0</v>
+      </c>
+      <c r="AC54">
         <v>-104778.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s">
-        <v>58</v>
+      <c r="AE54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9482,37 +9447,37 @@
         <v>-0.11</v>
       </c>
       <c r="R55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S55" s="1">
         <v>13792</v>
       </c>
-      <c r="S55" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T55" s="1">
+      <c r="T55" s="1"/>
+      <c r="U55" s="6">
         <v>137.92</v>
       </c>
-      <c r="U55" s="6">
+      <c r="V55" s="1">
         <v>-110153.92</v>
       </c>
-      <c r="V55" s="1">
+      <c r="W55" s="1">
         <v>13792</v>
       </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55">
-        <v>0.0</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55">
+        <v>0.0</v>
+      </c>
+      <c r="AC55">
         <v>-110017.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s">
-        <v>59</v>
+      <c r="AE55" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9552,37 +9517,37 @@
         <v>-0.11</v>
       </c>
       <c r="R56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S56" s="1">
         <v>12275</v>
       </c>
-      <c r="S56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="1">
+      <c r="T56" s="1"/>
+      <c r="U56" s="6">
         <v>122.75</v>
       </c>
-      <c r="U56" s="6">
+      <c r="V56" s="1">
         <v>-115639.75</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>12275</v>
       </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56">
-        <v>0.0</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56">
+        <v>0.0</v>
+      </c>
+      <c r="AC56">
         <v>-115518.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s">
-        <v>60</v>
+      <c r="AE56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9622,37 +9587,38 @@
         <v>-0.11</v>
       </c>
       <c r="R57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S57" s="13">
         <v>10925</v>
       </c>
-      <c r="S57" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="13">
+      <c r="T57" s="13"/>
+      <c r="U57" s="13">
         <v>109.25</v>
       </c>
-      <c r="U57" s="13">
+      <c r="V57" s="13">
         <v>-121402.25</v>
       </c>
-      <c r="V57" s="13">
+      <c r="W57" s="13">
         <v>10925</v>
       </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>-121294.0</v>
       </c>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="3" t="s">
-        <v>61</v>
+      <c r="AD57" s="3"/>
+      <c r="AE57" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9692,37 +9658,37 @@
         <v>-0.11</v>
       </c>
       <c r="R58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S58" s="1">
         <v>9723</v>
       </c>
-      <c r="S58" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="1">
+      <c r="T58" s="1"/>
+      <c r="U58" s="6">
         <v>97.23</v>
       </c>
-      <c r="U58" s="6">
+      <c r="V58" s="1">
         <v>-127455.23</v>
       </c>
-      <c r="V58" s="1">
+      <c r="W58" s="1">
         <v>9723</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58">
-        <v>0.0</v>
-      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58">
+        <v>0.0</v>
+      </c>
+      <c r="AC58">
         <v>-127358.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s">
-        <v>62</v>
+      <c r="AE58" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9762,37 +9728,37 @@
         <v>-0.11</v>
       </c>
       <c r="R59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S59" s="1">
         <v>8653</v>
       </c>
-      <c r="S59" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T59" s="1">
+      <c r="T59" s="1"/>
+      <c r="U59" s="6">
         <v>86.53</v>
       </c>
-      <c r="U59" s="6">
+      <c r="V59" s="1">
         <v>-133812.53</v>
       </c>
-      <c r="V59" s="1">
+      <c r="W59" s="1">
         <v>8653</v>
       </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59">
-        <v>0.0</v>
-      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59">
+        <v>0.0</v>
+      </c>
+      <c r="AC59">
         <v>-133726.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s">
-        <v>63</v>
+      <c r="AE59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9832,37 +9798,37 @@
         <v>-0.11</v>
       </c>
       <c r="R60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S60" s="1">
         <v>7701</v>
       </c>
-      <c r="S60" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T60" s="1">
+      <c r="T60" s="1"/>
+      <c r="U60" s="6">
         <v>77.01</v>
       </c>
-      <c r="U60" s="6">
+      <c r="V60" s="1">
         <v>-140489.01</v>
       </c>
-      <c r="V60" s="1">
+      <c r="W60" s="1">
         <v>7701</v>
       </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60">
-        <v>0.0</v>
-      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60">
+        <v>0.0</v>
+      </c>
+      <c r="AC60">
         <v>-140413.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s">
-        <v>64</v>
+      <c r="AE60" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9902,37 +9868,37 @@
         <v>-0.11</v>
       </c>
       <c r="R61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S61" s="1">
         <v>6854</v>
       </c>
-      <c r="S61" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T61" s="1">
+      <c r="T61" s="1"/>
+      <c r="U61" s="6">
         <v>68.54</v>
       </c>
-      <c r="U61" s="6">
+      <c r="V61" s="1">
         <v>-147501.54</v>
       </c>
-      <c r="V61" s="1">
+      <c r="W61" s="1">
         <v>6854</v>
       </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61">
-        <v>0.0</v>
-      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61">
+        <v>0.0</v>
+      </c>
+      <c r="AC61">
         <v>-147433.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" t="s">
-        <v>65</v>
+      <c r="AE61" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9972,37 +9938,37 @@
         <v>-0.11</v>
       </c>
       <c r="R62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S62" s="1">
         <v>6100</v>
       </c>
-      <c r="S62" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T62" s="1">
+      <c r="T62" s="1"/>
+      <c r="U62" s="6">
         <v>61.0</v>
       </c>
-      <c r="U62" s="6">
+      <c r="V62" s="1">
         <v>-154865.0</v>
       </c>
-      <c r="V62" s="1">
+      <c r="W62" s="1">
         <v>6100</v>
       </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62">
-        <v>0.0</v>
-      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62">
+        <v>0.0</v>
+      </c>
+      <c r="AC62">
         <v>-154805.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s">
-        <v>66</v>
+      <c r="AE62" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10042,37 +10008,37 @@
         <v>-0.11</v>
       </c>
       <c r="R63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S63" s="1">
         <v>5429</v>
       </c>
-      <c r="S63" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T63" s="1">
+      <c r="T63" s="1"/>
+      <c r="U63" s="6">
         <v>54.29</v>
       </c>
-      <c r="U63" s="6">
+      <c r="V63" s="1">
         <v>-162599.29</v>
       </c>
-      <c r="V63" s="1">
+      <c r="W63" s="1">
         <v>5429</v>
       </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63">
-        <v>0.0</v>
-      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63">
+        <v>0.0</v>
+      </c>
+      <c r="AC63">
         <v>-162545.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s">
-        <v>67</v>
+      <c r="AE63" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10112,37 +10078,37 @@
         <v>-0.11</v>
       </c>
       <c r="R64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S64" s="1">
         <v>4832</v>
       </c>
-      <c r="S64" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T64" s="1">
+      <c r="T64" s="1"/>
+      <c r="U64" s="6">
         <v>48.32</v>
       </c>
-      <c r="U64" s="6">
+      <c r="V64" s="1">
         <v>-170720.32</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <v>4832</v>
       </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64">
-        <v>0.0</v>
-      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64"/>
       <c r="AB64">
+        <v>0.0</v>
+      </c>
+      <c r="AC64">
         <v>-170672.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s">
-        <v>68</v>
+      <c r="AE64" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10182,37 +10148,37 @@
         <v>-0.11</v>
       </c>
       <c r="R65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S65" s="1">
         <v>4300</v>
       </c>
-      <c r="S65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T65" s="1">
+      <c r="T65" s="1"/>
+      <c r="U65" s="6">
         <v>43.0</v>
       </c>
-      <c r="U65" s="6">
+      <c r="V65" s="1">
         <v>-179248.0</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <v>4300</v>
       </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65">
-        <v>0.0</v>
-      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65"/>
       <c r="AB65">
+        <v>0.0</v>
+      </c>
+      <c r="AC65">
         <v>-179206.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" t="s">
-        <v>69</v>
+      <c r="AE65" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10252,37 +10218,37 @@
         <v>-0.11</v>
       </c>
       <c r="R66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S66" s="1">
         <v>3827</v>
       </c>
-      <c r="S66" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T66" s="1">
+      <c r="T66" s="1"/>
+      <c r="U66" s="6">
         <v>38.27</v>
       </c>
-      <c r="U66" s="6">
+      <c r="V66" s="1">
         <v>-188204.27</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>3827</v>
       </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66">
-        <v>0.0</v>
-      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66"/>
       <c r="AB66">
+        <v>0.0</v>
+      </c>
+      <c r="AC66">
         <v>-188166.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s">
-        <v>70</v>
+      <c r="AE66" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10322,37 +10288,37 @@
         <v>-0.11</v>
       </c>
       <c r="R67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S67" s="1">
         <v>3406</v>
       </c>
-      <c r="S67" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T67" s="1">
+      <c r="T67" s="1"/>
+      <c r="U67" s="6">
         <v>34.06</v>
       </c>
-      <c r="U67" s="6">
+      <c r="V67" s="1">
         <v>-197608.06</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>3406</v>
       </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67">
-        <v>0.0</v>
-      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67">
+        <v>0.0</v>
+      </c>
+      <c r="AC67">
         <v>-197575.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" t="s">
-        <v>71</v>
+      <c r="AE67" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10392,37 +10358,37 @@
         <v>-0.11</v>
       </c>
       <c r="R68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S68" s="1">
         <v>3031</v>
       </c>
-      <c r="S68" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T68" s="1">
+      <c r="T68" s="1"/>
+      <c r="U68" s="6">
         <v>30.31</v>
       </c>
-      <c r="U68" s="6">
+      <c r="V68" s="1">
         <v>-207483.31</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>3031</v>
       </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68">
-        <v>0.0</v>
-      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68"/>
       <c r="AB68">
+        <v>0.0</v>
+      </c>
+      <c r="AC68">
         <v>-207453.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s">
-        <v>72</v>
+      <c r="AE68" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10462,37 +10428,37 @@
         <v>-0.11</v>
       </c>
       <c r="R69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S69" s="1">
         <v>2698</v>
       </c>
-      <c r="S69" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T69" s="1">
+      <c r="T69" s="1"/>
+      <c r="U69" s="6">
         <v>26.98</v>
       </c>
-      <c r="U69" s="6">
+      <c r="V69" s="1">
         <v>-217851.98</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>2698</v>
       </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69">
-        <v>0.0</v>
-      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69"/>
       <c r="AB69">
+        <v>0.0</v>
+      </c>
+      <c r="AC69">
         <v>-217826.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" t="s">
-        <v>73</v>
+      <c r="AE69" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10532,37 +10498,37 @@
         <v>-0.11</v>
       </c>
       <c r="R70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S70" s="1">
         <v>2401</v>
       </c>
-      <c r="S70" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T70" s="1">
+      <c r="T70" s="1"/>
+      <c r="U70" s="6">
         <v>24.01</v>
       </c>
-      <c r="U70" s="6">
+      <c r="V70" s="1">
         <v>-228741.01</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>2401</v>
       </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70">
-        <v>0.0</v>
-      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70"/>
       <c r="AB70">
+        <v>0.0</v>
+      </c>
+      <c r="AC70">
         <v>-228717.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" t="s">
-        <v>74</v>
+      <c r="AE70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10602,37 +10568,37 @@
         <v>-0.11</v>
       </c>
       <c r="R71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S71" s="1">
         <v>2137</v>
       </c>
-      <c r="S71" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="1">
+      <c r="T71" s="1"/>
+      <c r="U71" s="6">
         <v>21.37</v>
       </c>
-      <c r="U71" s="6">
+      <c r="V71" s="1">
         <v>-240174.37</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>2137</v>
       </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71">
-        <v>0.0</v>
-      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71"/>
       <c r="AB71">
+        <v>0.0</v>
+      </c>
+      <c r="AC71">
         <v>-240153.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s">
-        <v>75</v>
+      <c r="AE71" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10672,37 +10638,38 @@
         <v>-0.11</v>
       </c>
       <c r="R72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="S72" s="5">
         <v>1902</v>
       </c>
-      <c r="S72" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="T72" s="5">
+      <c r="T72" s="5"/>
+      <c r="U72" s="5">
         <v>19.02</v>
       </c>
-      <c r="U72" s="5">
+      <c r="V72" s="5">
         <v>-252179.02</v>
       </c>
-      <c r="V72" s="5">
+      <c r="W72" s="5">
         <v>1902</v>
       </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-252161.0</v>
       </c>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="15" t="s">
-        <v>76</v>
+      <c r="AD72" s="15"/>
+      <c r="AE72" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10723,15 +10690,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -10751,15 +10717,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -10779,15 +10744,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -10807,15 +10771,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -10835,15 +10798,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -10863,15 +10825,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -10891,15 +10852,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -10919,15 +10879,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
